--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_6_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_6_matched_errors_latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-07-01 00:00:00_diff</t>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,25 +518,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-9.780318414391347</v>
+        <v>8.826710628892494</v>
       </c>
       <c r="C3">
-        <v>-2.0709218147352</v>
+        <v>-8.723943454208817</v>
       </c>
       <c r="D3">
-        <v>-0.4880091538482882</v>
+        <v>-1.01454685455267</v>
       </c>
       <c r="E3">
-        <v>-3.454296146197544</v>
+        <v>0.5683658063342414</v>
       </c>
       <c r="F3">
-        <v>-1.190264991533081</v>
+        <v>-2.397921186015015</v>
       </c>
       <c r="G3">
-        <v>-1.64141914645982</v>
+        <v>-0.1338900313505515</v>
       </c>
       <c r="H3">
-        <v>-1.781783209973794</v>
+        <v>-0.5850441862772902</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -541,25 +544,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-1.200275438764269</v>
+        <v>-9.780318414391347</v>
       </c>
       <c r="C4">
-        <v>0.3826372221226423</v>
+        <v>-2.0709218147352</v>
       </c>
       <c r="D4">
-        <v>-2.583649770226613</v>
+        <v>-0.4880091538482882</v>
       </c>
       <c r="E4">
-        <v>-0.3196186155621505</v>
+        <v>-3.454296146197544</v>
       </c>
       <c r="F4">
-        <v>-0.7707727704888893</v>
+        <v>-1.190264991533081</v>
       </c>
       <c r="G4">
-        <v>-0.9111368340028634</v>
+        <v>-1.64141914645982</v>
       </c>
       <c r="H4">
-        <v>-0.3848978231406458</v>
+        <v>-1.781783209973794</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -567,25 +570,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3719860057927588</v>
+        <v>-1.200275438764269</v>
       </c>
       <c r="C5">
-        <v>-2.594300986556497</v>
+        <v>0.3826372221226423</v>
       </c>
       <c r="D5">
-        <v>-0.3302698318920341</v>
+        <v>-2.583649770226613</v>
       </c>
       <c r="E5">
-        <v>-0.7814239868187727</v>
+        <v>-0.3196186155621505</v>
       </c>
       <c r="F5">
-        <v>-0.9217880503327469</v>
+        <v>-0.7707727704888893</v>
       </c>
       <c r="G5">
-        <v>-0.3955490394705293</v>
+        <v>-0.9111368340028634</v>
       </c>
       <c r="H5">
-        <v>-0.5373779862098034</v>
+        <v>-0.3848978231406458</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -593,25 +596,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-2.702915518772638</v>
+        <v>0.3719860057927588</v>
       </c>
       <c r="C6">
-        <v>-0.4388843641081749</v>
+        <v>-2.594300986556497</v>
       </c>
       <c r="D6">
-        <v>-0.8900385190349136</v>
+        <v>-0.3302698318920341</v>
       </c>
       <c r="E6">
-        <v>-1.030402582548888</v>
+        <v>-0.7814239868187727</v>
       </c>
       <c r="F6">
-        <v>-0.5041635716866701</v>
+        <v>-0.9217880503327469</v>
       </c>
       <c r="G6">
-        <v>-0.6459925184259441</v>
+        <v>-0.3955490394705293</v>
       </c>
       <c r="H6">
-        <v>-0.003017897023880223</v>
+        <v>-0.5373779862098034</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -619,25 +622,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.2307826431404359</v>
+        <v>-2.702915518772638</v>
       </c>
       <c r="C7">
-        <v>-0.6819367980671746</v>
+        <v>-0.4388843641081749</v>
       </c>
       <c r="D7">
-        <v>-0.8223008615811487</v>
+        <v>-0.8900385190349136</v>
       </c>
       <c r="E7">
-        <v>-0.2960618507189311</v>
+        <v>-1.030402582548888</v>
       </c>
       <c r="F7">
-        <v>-0.4378907974582051</v>
+        <v>-0.5041635716866701</v>
       </c>
       <c r="G7">
-        <v>0.2050838239438588</v>
+        <v>-0.6459925184259441</v>
       </c>
       <c r="H7">
-        <v>0.3294965302734412</v>
+        <v>-0.003017897023880223</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -645,25 +648,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.5654386276933741</v>
+        <v>-0.2307826431404359</v>
       </c>
       <c r="C8">
-        <v>-0.7058026912073482</v>
+        <v>-0.6819367980671746</v>
       </c>
       <c r="D8">
-        <v>-0.1795636803451306</v>
+        <v>-0.8223008615811487</v>
       </c>
       <c r="E8">
-        <v>-0.3213926270844047</v>
+        <v>-0.2960618507189311</v>
       </c>
       <c r="F8">
-        <v>0.3215819943176592</v>
+        <v>-0.4378907974582051</v>
       </c>
       <c r="G8">
-        <v>0.4459947006472416</v>
+        <v>0.2050838239438588</v>
       </c>
       <c r="H8">
-        <v>0.04836449460962439</v>
+        <v>0.3294965302734412</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -671,25 +674,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.6603092772102132</v>
+        <v>-0.5654386276933741</v>
       </c>
       <c r="C9">
-        <v>-0.1340702663479956</v>
+        <v>-0.7058026912073482</v>
       </c>
       <c r="D9">
-        <v>-0.2758992130872696</v>
+        <v>-0.1795636803451306</v>
       </c>
       <c r="E9">
-        <v>0.3670754083147943</v>
+        <v>-0.3213926270844047</v>
       </c>
       <c r="F9">
-        <v>0.4914881146443768</v>
+        <v>0.3215819943176592</v>
       </c>
       <c r="G9">
-        <v>0.09385790860675949</v>
+        <v>0.4459947006472416</v>
       </c>
       <c r="H9">
-        <v>0.01768919490591373</v>
+        <v>0.04836449460962439</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -697,25 +700,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.15162438770796</v>
+        <v>-0.6603092772102132</v>
       </c>
       <c r="C10">
-        <v>-0.293453334447234</v>
+        <v>-0.1340702663479956</v>
       </c>
       <c r="D10">
-        <v>0.3495212869548299</v>
+        <v>-0.2758992130872696</v>
       </c>
       <c r="E10">
-        <v>0.4739339932844123</v>
+        <v>0.3670754083147943</v>
       </c>
       <c r="F10">
-        <v>0.07630378724679503</v>
+        <v>0.4914881146443768</v>
       </c>
       <c r="G10">
-        <v>0.0001350735459492769</v>
+        <v>0.09385790860675949</v>
       </c>
       <c r="H10">
-        <v>0.2764571316688709</v>
+        <v>0.01768919490591373</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -723,25 +726,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.2053460154962278</v>
+        <v>-0.15162438770796</v>
       </c>
       <c r="C11">
-        <v>0.4376286059058361</v>
+        <v>-0.293453334447234</v>
       </c>
       <c r="D11">
-        <v>0.5620413122354185</v>
+        <v>0.3495212869548299</v>
       </c>
       <c r="E11">
-        <v>0.1644111061978012</v>
+        <v>0.4739339932844123</v>
       </c>
       <c r="F11">
-        <v>0.08824239249695551</v>
+        <v>0.07630378724679503</v>
       </c>
       <c r="G11">
-        <v>0.3645644506198771</v>
+        <v>0.0001350735459492769</v>
       </c>
       <c r="H11">
-        <v>0.1933446283081531</v>
+        <v>0.2764571316688709</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -749,25 +752,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6162032393936197</v>
+        <v>-0.2053460154962278</v>
       </c>
       <c r="C12">
-        <v>0.7406159457232021</v>
+        <v>0.4376286059058361</v>
       </c>
       <c r="D12">
-        <v>0.3429857396855849</v>
+        <v>0.5620413122354185</v>
       </c>
       <c r="E12">
-        <v>0.2668170259847391</v>
+        <v>0.1644111061978012</v>
       </c>
       <c r="F12">
-        <v>0.5431390841076607</v>
+        <v>0.08824239249695551</v>
       </c>
       <c r="G12">
-        <v>0.3719192617959367</v>
+        <v>0.3645644506198771</v>
       </c>
       <c r="H12">
-        <v>0.525066667304678</v>
+        <v>0.1933446283081531</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -775,25 +778,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1.652643173475852</v>
+        <v>0.6162032393936197</v>
       </c>
       <c r="C13">
-        <v>1.255012967438235</v>
+        <v>0.7406159457232021</v>
       </c>
       <c r="D13">
-        <v>1.178844253737389</v>
+        <v>0.3429857396855849</v>
       </c>
       <c r="E13">
-        <v>1.455166311860311</v>
+        <v>0.2668170259847391</v>
       </c>
       <c r="F13">
-        <v>1.283946489548587</v>
+        <v>0.5431390841076607</v>
       </c>
       <c r="G13">
-        <v>1.437093895057328</v>
+        <v>0.3719192617959367</v>
       </c>
       <c r="H13">
-        <v>1.159665120634209</v>
+        <v>0.525066667304678</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -801,25 +804,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3110387314724781</v>
+        <v>1.652643173475852</v>
       </c>
       <c r="C14">
-        <v>0.2348700177716323</v>
+        <v>1.255012967438235</v>
       </c>
       <c r="D14">
-        <v>0.5111920758945538</v>
+        <v>1.178844253737389</v>
       </c>
       <c r="E14">
-        <v>0.3399722535828299</v>
+        <v>1.455166311860311</v>
       </c>
       <c r="F14">
-        <v>0.4931196590915711</v>
+        <v>1.283946489548587</v>
       </c>
       <c r="G14">
-        <v>0.2156908846684524</v>
+        <v>1.437093895057328</v>
       </c>
       <c r="H14">
-        <v>0.05270319130950599</v>
+        <v>1.159665120634209</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -827,25 +830,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2388379152847414</v>
+        <v>0.3110387314724781</v>
       </c>
       <c r="C15">
-        <v>0.5151599734076631</v>
+        <v>0.2348700177716323</v>
       </c>
       <c r="D15">
-        <v>0.343940151095939</v>
+        <v>0.5111920758945538</v>
       </c>
       <c r="E15">
-        <v>0.4970875566046802</v>
+        <v>0.3399722535828299</v>
       </c>
       <c r="F15">
-        <v>0.2196587821815615</v>
+        <v>0.4931196590915711</v>
       </c>
       <c r="G15">
-        <v>0.0566710888226151</v>
+        <v>0.2156908846684524</v>
       </c>
       <c r="H15">
-        <v>-0.06741148657190271</v>
+        <v>0.05270319130950599</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -853,117 +856,143 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6508000635779043</v>
+        <v>0.2388379152847414</v>
       </c>
       <c r="C16">
-        <v>0.4795802412661804</v>
+        <v>0.5151599734076631</v>
       </c>
       <c r="D16">
-        <v>0.6327276467749217</v>
+        <v>0.343940151095939</v>
       </c>
       <c r="E16">
-        <v>0.3552988723518029</v>
+        <v>0.4970875566046802</v>
       </c>
       <c r="F16">
-        <v>0.1923111789928565</v>
+        <v>0.2196587821815615</v>
       </c>
       <c r="G16">
-        <v>0.06822860359833866</v>
+        <v>0.0566710888226151</v>
       </c>
       <c r="H16">
-        <v>0.6511691608790895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.06741148657190271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2387740594105157</v>
+        <v>0.6508000635779043</v>
       </c>
       <c r="C17">
-        <v>0.3919214649192569</v>
+        <v>0.4795802412661804</v>
       </c>
       <c r="D17">
-        <v>0.1144926904961382</v>
+        <v>0.6327276467749217</v>
       </c>
       <c r="E17">
-        <v>-0.04849500286280822</v>
+        <v>0.3552988723518029</v>
       </c>
       <c r="F17">
-        <v>-0.172577578257326</v>
+        <v>0.1923111789928565</v>
       </c>
       <c r="G17">
-        <v>0.4103629790234248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.06822860359833866</v>
+      </c>
+      <c r="H17">
+        <v>0.6511691608790895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3465902496671606</v>
+        <v>0.2387740594105157</v>
       </c>
       <c r="C18">
-        <v>0.0691614752440418</v>
+        <v>0.3919214649192569</v>
       </c>
       <c r="D18">
-        <v>-0.09382621811490459</v>
+        <v>0.1144926904961382</v>
       </c>
       <c r="E18">
-        <v>-0.2179087935094224</v>
+        <v>-0.04849500286280822</v>
       </c>
       <c r="F18">
-        <v>0.3650317637713285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>-0.172577578257326</v>
+      </c>
+      <c r="G18">
+        <v>0.4103629790234248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00230005330798793</v>
+        <v>0.3465902496671606</v>
       </c>
       <c r="C19">
-        <v>-0.1606876400509585</v>
+        <v>0.0691614752440418</v>
       </c>
       <c r="D19">
-        <v>-0.2847702154454763</v>
+        <v>-0.09382621811490459</v>
       </c>
       <c r="E19">
-        <v>0.2981703418352746</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.2179087935094224</v>
+      </c>
+      <c r="F19">
+        <v>0.3650317637713285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.1902738424076751</v>
+        <v>0.00230005330798793</v>
       </c>
       <c r="C20">
-        <v>-0.3143564178021929</v>
+        <v>-0.1606876400509585</v>
       </c>
       <c r="D20">
-        <v>0.268584139478558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.2847702154454763</v>
+      </c>
+      <c r="E20">
+        <v>0.2981703418352746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.3325070745318338</v>
+        <v>-0.1902738424076751</v>
       </c>
       <c r="C21">
-        <v>0.2504334827489171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.3143564178021929</v>
+      </c>
+      <c r="D21">
+        <v>0.268584139478558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
+        <v>-0.3325070745318338</v>
+      </c>
+      <c r="C22">
+        <v>0.2504334827489171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>0.2324016585002178</v>
       </c>
     </row>
